--- a/Lab. TCM I/Relatório_4/dados_brutos_mV.xlsx
+++ b/Lab. TCM I/Relatório_4/dados_brutos_mV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNESP\EngMec-UNESP\Lab. TCM I\Relatório_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE11262F-CC8D-4FCB-97E6-0B208CB9BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B152742-09DA-47DE-889F-CC174A3114A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FBE7A0B9-9E80-4A09-B850-E8188D310E3F}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -154,6 +154,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161AB6AF-1981-43CD-A111-729E641E4A23}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,9 +1396,7 @@
       <c r="E32" s="3">
         <v>1.502</v>
       </c>
-      <c r="F32" s="5">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="7">
         <v>1.48</v>
       </c>
@@ -1421,9 +1423,7 @@
       <c r="E33" s="3">
         <v>1.5009999999999999</v>
       </c>
-      <c r="F33" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7">
         <v>1.476</v>
       </c>
@@ -1450,9 +1450,7 @@
       <c r="E34" s="3">
         <v>1.496</v>
       </c>
-      <c r="F34" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7">
         <v>1.472</v>
       </c>
@@ -1479,9 +1477,7 @@
       <c r="E35" s="3">
         <v>1.492</v>
       </c>
-      <c r="F35" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="7">
         <v>1.4670000000000001</v>
       </c>
@@ -1508,9 +1504,7 @@
       <c r="E36" s="3">
         <v>1.49</v>
       </c>
-      <c r="F36" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7">
         <v>1.4630000000000001</v>
       </c>
@@ -1537,9 +1531,7 @@
       <c r="E37" s="3">
         <v>1.4850000000000001</v>
       </c>
-      <c r="F37" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7">
         <v>1.4590000000000001</v>
       </c>
@@ -1560,15 +1552,11 @@
       <c r="C38" s="1">
         <v>1.5049999999999999</v>
       </c>
-      <c r="D38" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3">
         <v>1.4810000000000001</v>
       </c>
-      <c r="F38" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7">
         <v>1.4550000000000001</v>
       </c>
@@ -1589,15 +1577,11 @@
       <c r="C39" s="1">
         <v>1.5029999999999999</v>
       </c>
-      <c r="D39" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="3">
         <v>1.4790000000000001</v>
       </c>
-      <c r="F39" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7">
         <v>1.452</v>
       </c>
@@ -1618,21 +1602,15 @@
       <c r="C40" s="1">
         <v>1.498</v>
       </c>
-      <c r="D40" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3">
         <v>1.476</v>
       </c>
-      <c r="F40" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7">
         <v>1.448</v>
       </c>
-      <c r="H40" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H40" s="10"/>
       <c r="I40" s="10">
         <v>1.524</v>
       </c>
@@ -1647,21 +1625,15 @@
       <c r="C41" s="1">
         <v>1.4970000000000001</v>
       </c>
-      <c r="D41" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3">
         <v>1.472</v>
       </c>
-      <c r="F41" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7">
         <v>1.4450000000000001</v>
       </c>
-      <c r="H41" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H41" s="10"/>
       <c r="I41" s="10">
         <v>1.5209999999999999</v>
       </c>
@@ -1676,21 +1648,15 @@
       <c r="C42" s="1">
         <v>1.494</v>
       </c>
-      <c r="D42" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3">
         <v>1.47</v>
       </c>
-      <c r="F42" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="7">
         <v>1.4419999999999999</v>
       </c>
-      <c r="H42" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H42" s="10"/>
       <c r="I42" s="10">
         <v>1.518</v>
       </c>
@@ -1699,27 +1665,19 @@
       <c r="A43">
         <v>410</v>
       </c>
-      <c r="B43" s="1">
-        <v>1.605</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1">
         <v>1.4930000000000001</v>
       </c>
-      <c r="D43" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3">
         <v>1.466</v>
       </c>
-      <c r="F43" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="7">
         <v>1.4370000000000001</v>
       </c>
-      <c r="H43" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H43" s="10"/>
       <c r="I43" s="10">
         <v>1.5169999999999999</v>
       </c>
@@ -1728,27 +1686,19 @@
       <c r="A44">
         <v>420</v>
       </c>
-      <c r="B44" s="3">
-        <v>1.605</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="1">
         <v>1.4890000000000001</v>
       </c>
-      <c r="D44" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="3">
         <v>1.464</v>
       </c>
-      <c r="F44" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7">
         <v>1.4339999999999999</v>
       </c>
-      <c r="H44" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H44" s="10"/>
       <c r="I44" s="10">
         <v>1.516</v>
       </c>
@@ -1757,27 +1707,19 @@
       <c r="A45">
         <v>430</v>
       </c>
-      <c r="B45" s="3">
-        <v>1.605</v>
-      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="1">
         <v>1.486</v>
       </c>
-      <c r="D45" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="3">
         <v>1.4610000000000001</v>
       </c>
-      <c r="F45" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="7">
         <v>1.43</v>
       </c>
-      <c r="H45" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H45" s="10"/>
       <c r="I45" s="10">
         <v>1.5129999999999999</v>
       </c>
@@ -1786,27 +1728,19 @@
       <c r="A46">
         <v>440</v>
       </c>
-      <c r="B46" s="3">
-        <v>1.605</v>
-      </c>
+      <c r="B46" s="3"/>
       <c r="C46" s="1">
         <v>1.484</v>
       </c>
-      <c r="D46" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="3">
         <v>1.458</v>
       </c>
-      <c r="F46" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F46" s="7"/>
       <c r="G46" s="7">
         <v>1.425</v>
       </c>
-      <c r="H46" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H46" s="10"/>
       <c r="I46" s="10">
         <v>1.5109999999999999</v>
       </c>
@@ -1815,27 +1749,19 @@
       <c r="A47">
         <v>450</v>
       </c>
-      <c r="B47" s="3">
-        <v>1.605</v>
-      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="1">
         <v>1.4810000000000001</v>
       </c>
-      <c r="D47" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3">
         <v>1.456</v>
       </c>
-      <c r="F47" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="7">
         <v>1.423</v>
       </c>
-      <c r="H47" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H47" s="10"/>
       <c r="I47" s="10">
         <v>1.5089999999999999</v>
       </c>
@@ -1844,27 +1770,19 @@
       <c r="A48">
         <v>460</v>
       </c>
-      <c r="B48" s="3">
-        <v>1.605</v>
-      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="1">
         <v>1.4790000000000001</v>
       </c>
-      <c r="D48" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3">
         <v>1.4530000000000001</v>
       </c>
-      <c r="F48" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7">
         <v>1.4179999999999999</v>
       </c>
-      <c r="H48" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H48" s="10"/>
       <c r="I48" s="10">
         <v>1.5049999999999999</v>
       </c>
@@ -1873,27 +1791,19 @@
       <c r="A49">
         <v>470</v>
       </c>
-      <c r="B49" s="3">
-        <v>1.605</v>
-      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="1">
         <v>1.476</v>
       </c>
-      <c r="D49" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="3">
         <v>1.45</v>
       </c>
-      <c r="F49" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="7">
         <v>1.4159999999999999</v>
       </c>
-      <c r="H49" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H49" s="10"/>
       <c r="I49" s="10">
         <v>1.5029999999999999</v>
       </c>
@@ -1902,27 +1812,19 @@
       <c r="A50">
         <v>480</v>
       </c>
-      <c r="B50" s="3">
-        <v>1.605</v>
-      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="1">
         <v>1.4750000000000001</v>
       </c>
-      <c r="D50" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="3">
         <v>1.446</v>
       </c>
-      <c r="F50" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="7">
         <v>1.4119999999999999</v>
       </c>
-      <c r="H50" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H50" s="10"/>
       <c r="I50" s="10">
         <v>1.5009999999999999</v>
       </c>
@@ -1931,27 +1833,19 @@
       <c r="A51">
         <v>490</v>
       </c>
-      <c r="B51" s="3">
-        <v>1.605</v>
-      </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="1">
         <v>1.4710000000000001</v>
       </c>
-      <c r="D51" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3">
         <v>1.444</v>
       </c>
-      <c r="F51" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F51" s="7"/>
       <c r="G51" s="7">
         <v>1.4079999999999999</v>
       </c>
-      <c r="H51" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H51" s="10"/>
       <c r="I51" s="10">
         <v>1.5</v>
       </c>
@@ -1960,27 +1854,19 @@
       <c r="A52">
         <v>500</v>
       </c>
-      <c r="B52" s="3">
-        <v>1.605</v>
-      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="1">
         <v>1.4670000000000001</v>
       </c>
-      <c r="D52" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="3">
         <v>1.4419999999999999</v>
       </c>
-      <c r="F52" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="7">
         <v>1.4039999999999999</v>
       </c>
-      <c r="H52" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H52" s="10"/>
       <c r="I52" s="10">
         <v>1.4970000000000001</v>
       </c>
@@ -1989,27 +1875,17 @@
       <c r="A53">
         <v>510</v>
       </c>
-      <c r="B53" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="3">
         <v>1.44</v>
       </c>
-      <c r="F53" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="7">
         <v>1.401</v>
       </c>
-      <c r="H53" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H53" s="10"/>
       <c r="I53" s="10">
         <v>1.4950000000000001</v>
       </c>
@@ -2018,27 +1894,17 @@
       <c r="A54" s="9">
         <v>520</v>
       </c>
-      <c r="B54" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="4">
         <v>1.4359999999999999</v>
       </c>
-      <c r="F54" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F54" s="7"/>
       <c r="G54" s="7">
         <v>1.397</v>
       </c>
-      <c r="H54" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H54" s="10"/>
       <c r="I54" s="10">
         <v>1.4930000000000001</v>
       </c>
@@ -2047,27 +1913,17 @@
       <c r="A55" s="9">
         <v>530</v>
       </c>
-      <c r="B55" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="4">
         <v>1.4330000000000001</v>
       </c>
-      <c r="F55" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F55" s="7"/>
       <c r="G55" s="7">
         <v>1.3939999999999999</v>
       </c>
-      <c r="H55" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H55" s="10"/>
       <c r="I55" s="10">
         <v>1.49</v>
       </c>
@@ -2076,27 +1932,17 @@
       <c r="A56" s="9">
         <v>540</v>
       </c>
-      <c r="B56" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="4">
         <v>1.431</v>
       </c>
-      <c r="F56" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F56" s="7"/>
       <c r="G56" s="7">
         <v>1.391</v>
       </c>
-      <c r="H56" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H56" s="10"/>
       <c r="I56" s="10">
         <v>1.488</v>
       </c>
@@ -2105,27 +1951,17 @@
       <c r="A57" s="9">
         <v>550</v>
       </c>
-      <c r="B57" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="4">
         <v>1.427</v>
       </c>
-      <c r="F57" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7">
         <v>1.387</v>
       </c>
-      <c r="H57" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H57" s="10"/>
       <c r="I57" s="10">
         <v>1.488</v>
       </c>
@@ -2134,27 +1970,17 @@
       <c r="A58" s="9">
         <v>560</v>
       </c>
-      <c r="B58" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="4">
         <v>1.425</v>
       </c>
-      <c r="F58" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7">
         <v>1.3839999999999999</v>
       </c>
-      <c r="H58" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H58" s="10"/>
       <c r="I58" s="10">
         <v>1.484</v>
       </c>
@@ -2163,27 +1989,17 @@
       <c r="A59" s="9">
         <v>570</v>
       </c>
-      <c r="B59" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="4">
         <v>1.4219999999999999</v>
       </c>
-      <c r="F59" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7">
         <v>1.3819999999999999</v>
       </c>
-      <c r="H59" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H59" s="10"/>
       <c r="I59" s="10">
         <v>1.484</v>
       </c>
@@ -2192,27 +2008,17 @@
       <c r="A60" s="9">
         <v>580</v>
       </c>
-      <c r="B60" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="4">
         <v>1.42</v>
       </c>
-      <c r="F60" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7">
         <v>1.379</v>
       </c>
-      <c r="H60" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H60" s="10"/>
       <c r="I60" s="10">
         <v>1.4810000000000001</v>
       </c>
@@ -2221,27 +2027,17 @@
       <c r="A61" s="9">
         <v>590</v>
       </c>
-      <c r="B61" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="4">
         <v>1.4179999999999999</v>
       </c>
-      <c r="F61" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="7">
         <v>1.377</v>
       </c>
-      <c r="H61" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H61" s="10"/>
       <c r="I61" s="10">
         <v>1.48</v>
       </c>
@@ -2250,27 +2046,17 @@
       <c r="A62" s="9">
         <v>600</v>
       </c>
-      <c r="B62" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="4">
         <v>1.415</v>
       </c>
-      <c r="F62" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7">
         <v>1.3740000000000001</v>
       </c>
-      <c r="H62" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H62" s="10"/>
       <c r="I62" s="10">
         <v>1.478</v>
       </c>
@@ -2279,27 +2065,17 @@
       <c r="A63" s="9">
         <v>610</v>
       </c>
-      <c r="B63" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="4">
         <v>1.4119999999999999</v>
       </c>
-      <c r="F63" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7">
         <v>1.371</v>
       </c>
-      <c r="H63" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H63" s="10"/>
       <c r="I63" s="10">
         <v>1.476</v>
       </c>
@@ -2308,27 +2084,17 @@
       <c r="A64" s="9">
         <v>620</v>
       </c>
-      <c r="B64" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="4">
         <v>1.41</v>
       </c>
-      <c r="F64" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="7">
         <v>1.3680000000000001</v>
       </c>
-      <c r="H64" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H64" s="10"/>
       <c r="I64" s="10">
         <v>1.474</v>
       </c>
@@ -2337,27 +2103,17 @@
       <c r="A65" s="9">
         <v>630</v>
       </c>
-      <c r="B65" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="4">
         <v>1.4059999999999999</v>
       </c>
-      <c r="F65" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7">
         <v>1.365</v>
       </c>
-      <c r="H65" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H65" s="10"/>
       <c r="I65" s="10">
         <v>1.4730000000000001</v>
       </c>
@@ -2366,27 +2122,17 @@
       <c r="A66" s="9">
         <v>640</v>
       </c>
-      <c r="B66" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="4">
         <v>1.405</v>
       </c>
-      <c r="F66" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F66" s="7"/>
       <c r="G66" s="7">
         <v>1.3640000000000001</v>
       </c>
-      <c r="H66" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H66" s="10"/>
       <c r="I66" s="10">
         <v>1.47</v>
       </c>
@@ -2395,27 +2141,17 @@
       <c r="A67" s="9">
         <v>650</v>
       </c>
-      <c r="B67" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="4">
         <v>1.401</v>
       </c>
-      <c r="F67" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F67" s="7"/>
       <c r="G67" s="7">
         <v>1.36</v>
       </c>
-      <c r="H67" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H67" s="10"/>
       <c r="I67" s="10">
         <v>1.4670000000000001</v>
       </c>
@@ -2424,27 +2160,17 @@
       <c r="A68" s="9">
         <v>660</v>
       </c>
-      <c r="B68" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="4">
         <v>1.3979999999999999</v>
       </c>
-      <c r="F68" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="7">
         <v>1.3580000000000001</v>
       </c>
-      <c r="H68" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H68" s="10"/>
       <c r="I68" s="10">
         <v>1.4670000000000001</v>
       </c>
@@ -2453,27 +2179,17 @@
       <c r="A69" s="9">
         <v>670</v>
       </c>
-      <c r="B69" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1.7030000000000001</v>
-      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="4">
         <v>1.3959999999999999</v>
       </c>
-      <c r="F69" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="F69" s="7"/>
       <c r="G69" s="7">
         <v>1.355</v>
       </c>
-      <c r="H69" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H69" s="10"/>
       <c r="I69" s="10">
         <v>1.464</v>
       </c>
@@ -2482,27 +2198,15 @@
       <c r="A70" s="9">
         <v>680</v>
       </c>
-      <c r="B70" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F70" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="7">
         <v>1.3520000000000001</v>
       </c>
-      <c r="H70" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H70" s="10"/>
       <c r="I70" s="10">
         <v>1.462</v>
       </c>
@@ -2511,27 +2215,15 @@
       <c r="A71" s="9">
         <v>690</v>
       </c>
-      <c r="B71" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F71" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="7">
         <v>1.35</v>
       </c>
-      <c r="H71" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H71" s="10"/>
       <c r="I71" s="10">
         <v>1.4610000000000001</v>
       </c>
@@ -2540,27 +2232,15 @@
       <c r="A72" s="9">
         <v>700</v>
       </c>
-      <c r="B72" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F72" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="7">
         <v>1.3460000000000001</v>
       </c>
-      <c r="H72" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H72" s="10"/>
       <c r="I72" s="10">
         <v>1.4590000000000001</v>
       </c>
@@ -2569,27 +2249,15 @@
       <c r="A73" s="9">
         <v>710</v>
       </c>
-      <c r="B73" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F73" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="7">
         <v>1.3440000000000001</v>
       </c>
-      <c r="H73" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H73" s="10"/>
       <c r="I73" s="10">
         <v>1.4590000000000001</v>
       </c>
@@ -2598,27 +2266,15 @@
       <c r="A74" s="9">
         <v>720</v>
       </c>
-      <c r="B74" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F74" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="7"/>
       <c r="G74" s="7">
         <v>1.341</v>
       </c>
-      <c r="H74" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H74" s="10"/>
       <c r="I74" s="10">
         <v>1.456</v>
       </c>
@@ -2627,27 +2283,15 @@
       <c r="A75" s="9">
         <v>730</v>
       </c>
-      <c r="B75" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E75" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F75" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="7"/>
       <c r="G75" s="7">
         <v>1.34</v>
       </c>
-      <c r="H75" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H75" s="10"/>
       <c r="I75" s="10">
         <v>1.456</v>
       </c>
@@ -2656,27 +2300,15 @@
       <c r="A76" s="9">
         <v>740</v>
       </c>
-      <c r="B76" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E76" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F76" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="7"/>
       <c r="G76" s="7">
         <v>1.337</v>
       </c>
-      <c r="H76" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H76" s="10"/>
       <c r="I76" s="10">
         <v>1.454</v>
       </c>
@@ -2685,27 +2317,15 @@
       <c r="A77" s="9">
         <v>750</v>
       </c>
-      <c r="B77" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E77" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F77" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="7"/>
       <c r="G77" s="7">
         <v>1.3340000000000001</v>
       </c>
-      <c r="H77" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H77" s="10"/>
       <c r="I77" s="10">
         <v>1.4510000000000001</v>
       </c>
@@ -2714,27 +2334,15 @@
       <c r="A78" s="9">
         <v>760</v>
       </c>
-      <c r="B78" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E78" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F78" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="7"/>
       <c r="G78" s="7">
         <v>1.333</v>
       </c>
-      <c r="H78" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H78" s="14"/>
       <c r="I78" s="10">
         <v>1.45</v>
       </c>
@@ -2743,27 +2351,15 @@
       <c r="A79" s="9">
         <v>770</v>
       </c>
-      <c r="B79" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D79" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F79" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="7">
         <v>1.331</v>
       </c>
-      <c r="H79" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H79" s="10"/>
       <c r="I79" s="10">
         <v>1.448</v>
       </c>
@@ -2772,27 +2368,15 @@
       <c r="A80" s="9">
         <v>780</v>
       </c>
-      <c r="B80" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D80" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F80" s="7">
-        <v>1.6850000000000001</v>
-      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="7"/>
       <c r="G80" s="7">
         <v>1.3280000000000001</v>
       </c>
-      <c r="H80" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="H80" s="10"/>
       <c r="I80" s="10">
         <v>1.448</v>
       </c>
@@ -2801,27 +2385,13 @@
       <c r="A81" s="9">
         <v>790</v>
       </c>
-      <c r="B81" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F81" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G81" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H81" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="10">
         <v>1.446</v>
       </c>
@@ -2830,27 +2400,13 @@
       <c r="A82" s="9">
         <v>800</v>
       </c>
-      <c r="B82" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D82" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F82" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G82" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H82" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="10">
         <v>1.444</v>
       </c>
@@ -2859,27 +2415,13 @@
       <c r="A83" s="9">
         <v>810</v>
       </c>
-      <c r="B83" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C83" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F83" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G83" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H83" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="10">
         <v>1.4430000000000001</v>
       </c>
@@ -2888,27 +2430,13 @@
       <c r="A84" s="9">
         <v>820</v>
       </c>
-      <c r="B84" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F84" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G84" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H84" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="10">
         <v>1.4410000000000001</v>
       </c>
@@ -2917,27 +2445,13 @@
       <c r="A85" s="9">
         <v>830</v>
       </c>
-      <c r="B85" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C85" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D85" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F85" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G85" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H85" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="10">
         <v>1.4390000000000001</v>
       </c>
@@ -2946,27 +2460,13 @@
       <c r="A86" s="9">
         <v>840</v>
       </c>
-      <c r="B86" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C86" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F86" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G86" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H86" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="10"/>
       <c r="I86" s="10">
         <v>1.4390000000000001</v>
       </c>
@@ -2975,27 +2475,13 @@
       <c r="A87" s="9">
         <v>850</v>
       </c>
-      <c r="B87" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C87" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F87" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G87" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H87" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="10"/>
       <c r="I87" s="10">
         <v>1.4359999999999999</v>
       </c>
@@ -3004,27 +2490,13 @@
       <c r="A88" s="9">
         <v>860</v>
       </c>
-      <c r="B88" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C88" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F88" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G88" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H88" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="10"/>
       <c r="I88" s="10">
         <v>1.4350000000000001</v>
       </c>
@@ -3033,27 +2505,13 @@
       <c r="A89" s="9">
         <v>870</v>
       </c>
-      <c r="B89" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C89" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D89" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F89" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G89" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H89" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="10"/>
       <c r="I89" s="10">
         <v>1.4350000000000001</v>
       </c>
@@ -3062,27 +2520,13 @@
       <c r="A90" s="9">
         <v>880</v>
       </c>
-      <c r="B90" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C90" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F90" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G90" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H90" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="10"/>
       <c r="I90" s="10">
         <v>1.4339999999999999</v>
       </c>
@@ -3091,27 +2535,13 @@
       <c r="A91" s="9">
         <v>890</v>
       </c>
-      <c r="B91" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D91" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E91" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F91" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G91" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H91" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="10">
         <v>1.431</v>
       </c>
@@ -3120,27 +2550,13 @@
       <c r="A92" s="9">
         <v>900</v>
       </c>
-      <c r="B92" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C92" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D92" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E92" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F92" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G92" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H92" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="10">
         <v>1.429</v>
       </c>
@@ -3149,27 +2565,13 @@
       <c r="A93" s="9">
         <v>910</v>
       </c>
-      <c r="B93" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D93" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E93" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F93" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G93" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H93" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="10"/>
       <c r="I93" s="10">
         <v>1.427</v>
       </c>
@@ -3178,27 +2580,13 @@
       <c r="A94" s="9">
         <v>920</v>
       </c>
-      <c r="B94" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C94" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D94" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E94" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F94" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G94" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H94" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="10">
         <v>1.4239999999999999</v>
       </c>
@@ -3207,27 +2595,13 @@
       <c r="A95" s="9">
         <v>930</v>
       </c>
-      <c r="B95" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C95" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D95" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E95" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F95" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G95" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H95" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="10"/>
       <c r="I95" s="10">
         <v>1.4239999999999999</v>
       </c>
@@ -3236,27 +2610,13 @@
       <c r="A96" s="9">
         <v>940</v>
       </c>
-      <c r="B96" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C96" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E96" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F96" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G96" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H96" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="10"/>
       <c r="I96" s="10">
         <v>1.4219999999999999</v>
       </c>
@@ -3265,27 +2625,13 @@
       <c r="A97" s="9">
         <v>950</v>
       </c>
-      <c r="B97" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C97" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D97" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E97" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F97" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G97" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H97" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="10"/>
       <c r="I97" s="10">
         <v>1.419</v>
       </c>
@@ -3294,27 +2640,13 @@
       <c r="A98" s="9">
         <v>960</v>
       </c>
-      <c r="B98" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D98" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F98" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G98" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H98" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="10"/>
       <c r="I98" s="10">
         <v>1.417</v>
       </c>
@@ -3323,27 +2655,13 @@
       <c r="A99" s="9">
         <v>970</v>
       </c>
-      <c r="B99" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D99" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E99" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F99" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G99" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H99" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="10">
         <v>1.4159999999999999</v>
       </c>
@@ -3352,56 +2670,29 @@
       <c r="A100" s="9">
         <v>980</v>
       </c>
-      <c r="B100" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C100" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D100" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E100" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F100" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G100" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H100" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="10"/>
       <c r="I100" s="10">
         <v>1.415</v>
       </c>
+      <c r="J100" s="13"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>990</v>
       </c>
-      <c r="B101" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C101" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D101" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F101" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G101" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H101" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="10"/>
       <c r="I101" s="10">
         <v>1.413</v>
       </c>
@@ -3410,27 +2701,13 @@
       <c r="A102" s="9">
         <v>1000</v>
       </c>
-      <c r="B102" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C102" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D102" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E102" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F102" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G102" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H102" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="10"/>
       <c r="I102" s="10">
         <v>1.413</v>
       </c>
@@ -3439,27 +2716,13 @@
       <c r="A103" s="9">
         <v>1010</v>
       </c>
-      <c r="B103" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C103" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D103" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F103" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G103" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H103" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="10">
         <v>1.409</v>
       </c>
@@ -3469,27 +2732,13 @@
       <c r="A104" s="9">
         <v>1020</v>
       </c>
-      <c r="B104" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C104" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D104" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E104" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F104" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G104" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H104" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="10"/>
       <c r="I104" s="10">
         <v>1.407</v>
       </c>
@@ -3498,27 +2747,13 @@
       <c r="A105" s="9">
         <v>1030</v>
       </c>
-      <c r="B105" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C105" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D105" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F105" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G105" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H105" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="10"/>
       <c r="I105" s="10">
         <v>1.4059999999999999</v>
       </c>
@@ -3527,27 +2762,13 @@
       <c r="A106" s="9">
         <v>1040</v>
       </c>
-      <c r="B106" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C106" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D106" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E106" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F106" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G106" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H106" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="10"/>
       <c r="I106" s="10">
         <v>1.4039999999999999</v>
       </c>
@@ -3556,27 +2777,13 @@
       <c r="A107" s="9">
         <v>1050</v>
       </c>
-      <c r="B107" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C107" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D107" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F107" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G107" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H107" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="10"/>
       <c r="I107" s="10">
         <v>1.401</v>
       </c>
@@ -3585,27 +2792,13 @@
       <c r="A108" s="9">
         <v>1060</v>
       </c>
-      <c r="B108" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C108" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D108" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E108" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F108" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G108" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H108" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="10"/>
       <c r="I108" s="10">
         <v>1.401</v>
       </c>
@@ -3614,27 +2807,13 @@
       <c r="A109" s="9">
         <v>1070</v>
       </c>
-      <c r="B109" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C109" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D109" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E109" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F109" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G109" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H109" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="10">
         <v>1.3979999999999999</v>
       </c>
@@ -3643,27 +2822,13 @@
       <c r="A110" s="9">
         <v>1080</v>
       </c>
-      <c r="B110" s="3">
-        <v>1.605</v>
-      </c>
-      <c r="C110" s="3">
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="D110" s="3">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E110" s="4">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="F110" s="7">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="G110" s="7">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="H110" s="10">
-        <v>1.6279999999999999</v>
-      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="10"/>
       <c r="I110" s="10">
         <v>1.397</v>
       </c>
